--- a/MidTerm/Final_Calcs.xlsx
+++ b/MidTerm/Final_Calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgetty\Desktop\Repos\CSC_587\MidTerm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEE995A-1F39-4E4A-A2AB-49F84965BA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2CD8E1-95DF-4D1A-B42B-7F2A1EC7E053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38505" yWindow="-900" windowWidth="22785" windowHeight="20985" xr2:uid="{095844C4-0F0B-4CEB-9E3D-BBD9111505E4}"/>
+    <workbookView xWindow="-34275" yWindow="1830" windowWidth="31470" windowHeight="19590" xr2:uid="{095844C4-0F0B-4CEB-9E3D-BBD9111505E4}"/>
   </bookViews>
   <sheets>
     <sheet name="BaysTheorm" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t xml:space="preserve">department </t>
   </si>
@@ -304,6 +304,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -350,21 +353,15 @@
       <name val="SourceSansPro-Light-Identity-H"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -463,20 +460,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -500,47 +488,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,8 +556,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>272479</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1031,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93C7542-768F-40AD-9C75-8C04166CFD82}">
-  <dimension ref="A1:AA55"/>
+  <dimension ref="A1:X55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1062,8 +1047,8 @@
     <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:27" ht="59.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="8:27" ht="39" thickBot="1">
+    <row r="1" spans="8:24" ht="59.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="8:24" ht="39" thickBot="1">
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,32 +1064,26 @@
       <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="22" t="s">
+      <c r="M2" s="10"/>
+      <c r="N2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-    </row>
-    <row r="3" spans="8:27" ht="39" customHeight="1" thickBot="1">
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+    </row>
+    <row r="3" spans="8:24" ht="39" customHeight="1" thickBot="1">
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1117,44 +1096,33 @@
       <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="11">
         <v>30</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="12" t="s">
         <v>70</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="7">
         <f>SUM(L6:L9)</f>
         <v>31</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3" s="9">
         <f>O3/$L$14</f>
         <v>0.18787878787878787</v>
       </c>
-      <c r="Q3" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="14">
-        <f>SUM(L8)/$O6</f>
-        <v>2.6548672566371681E-2</v>
-      </c>
-      <c r="S3" s="14">
-        <f>SUM(L7,L9)/$O7</f>
-        <v>0.15384615384615385</v>
-      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-    </row>
-    <row r="4" spans="8:27" ht="26.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="4" spans="8:24" ht="26.25" customHeight="1" thickBot="1">
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1167,44 +1135,33 @@
       <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="11">
         <v>40</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="7">
         <f>SUM(L4,L8,L13)</f>
         <v>49</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="9">
         <f>O4/$L$14</f>
         <v>0.29696969696969699</v>
       </c>
-      <c r="Q4" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="R4" s="14">
-        <f>SUM(L4,L8,L13)/$O6</f>
-        <v>0.4336283185840708</v>
-      </c>
-      <c r="S4" s="14">
-        <f>SUM(0)/$O7</f>
-        <v>0</v>
-      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-    </row>
-    <row r="5" spans="8:27" ht="15.75" thickBot="1">
+    </row>
+    <row r="5" spans="8:24" ht="26.25" thickBot="1">
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1217,44 +1174,33 @@
       <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="11">
         <v>40</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="12" t="s">
         <v>72</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="7">
         <f>SUM(L3,L6,L8,L10)</f>
         <v>63</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="9">
         <f>O5/$L$14</f>
         <v>0.38181818181818183</v>
       </c>
-      <c r="Q5" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" s="14">
-        <f>SUM(L6,L8)/$O6</f>
-        <v>0.20353982300884957</v>
-      </c>
-      <c r="S5" s="14">
-        <f>SUM(L3,L10)/$O7</f>
-        <v>0.76923076923076927</v>
-      </c>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-    </row>
-    <row r="6" spans="8:27" ht="26.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="6" spans="8:24" ht="26.25" customHeight="1" thickBot="1">
       <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1267,34 +1213,25 @@
       <c r="K6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="11">
         <v>20</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="12" t="s">
         <v>73</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="4">
         <f>SUM(L4,L5,L6,L8,L11,L13)</f>
         <v>113</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="9">
         <f>O6/$L$14</f>
         <v>0.68484848484848482</v>
       </c>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="23">
-        <f>R3*R4*R5*P6</f>
-        <v>1.6047387493859418E-3</v>
-      </c>
-      <c r="S6" s="23">
-        <f>S3*S5*P7</f>
-        <v>3.7296037296037296E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="8:27" ht="15.75" thickBot="1">
+    </row>
+    <row r="7" spans="8:24" ht="15.75" thickBot="1">
       <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1307,31 +1244,25 @@
       <c r="K7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="11">
         <v>5</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="12" t="s">
         <v>74</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="4">
         <f>SUM(L3,L7,L9,L10,L12)</f>
         <v>52</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="9">
         <f>O7/$L$14</f>
         <v>0.31515151515151513</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="24">
-        <f>R6*S6</f>
-        <v>5.9850396247494334E-5</v>
-      </c>
-      <c r="S7" s="24"/>
-    </row>
-    <row r="8" spans="8:27" ht="15.75" thickBot="1">
+    </row>
+    <row r="8" spans="8:24" ht="26.25" customHeight="1" thickBot="1">
       <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,8 +1278,16 @@
       <c r="L8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="8:27" ht="15.75" thickBot="1">
+      <c r="N8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="19"/>
+      <c r="P8" s="20">
+        <f>P3*P4*P5*P6</f>
+        <v>1.4589519537979342E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="8:24" ht="26.25" customHeight="1" thickBot="1">
       <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1364,8 +1303,16 @@
       <c r="L9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="8:27" ht="15.75" thickBot="1">
+      <c r="N9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="19"/>
+      <c r="P9" s="20">
+        <f>P3*P4*P5*P7</f>
+        <v>6.7137612033179271E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="8:24" ht="15.75" thickBot="1">
       <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1382,7 +1329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="8:27" ht="15.75" thickBot="1">
+    <row r="11" spans="8:24" ht="15.75" thickBot="1">
       <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1399,7 +1346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="8:27" ht="15.75" thickBot="1">
+    <row r="12" spans="8:24" ht="15.75" thickBot="1">
       <c r="H12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1416,7 +1363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="8:27" ht="15.75" thickBot="1">
+    <row r="13" spans="8:24" ht="15.75" thickBot="1">
       <c r="H13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1433,7 +1380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="8:27" ht="15.75" thickBot="1">
+    <row r="14" spans="8:24" ht="15.75" thickBot="1">
       <c r="K14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1443,12 +1390,12 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4"/>
@@ -1526,9 +1473,7 @@
         <f>D31/D32</f>
         <v>0.5</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="4" t="s">
@@ -1538,9 +1483,7 @@
         <f>B32/D32</f>
         <v>0.45</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
@@ -1630,11 +1573,11 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
@@ -1695,11 +1638,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MidTerm/Final_Calcs.xlsx
+++ b/MidTerm/Final_Calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgetty\Desktop\Repos\CSC_587\MidTerm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2CD8E1-95DF-4D1A-B42B-7F2A1EC7E053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8135F175-B296-45FA-961A-9FC4F1341203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34275" yWindow="1830" windowWidth="31470" windowHeight="19590" xr2:uid="{095844C4-0F0B-4CEB-9E3D-BBD9111505E4}"/>
+    <workbookView xWindow="-38520" yWindow="-1020" windowWidth="38640" windowHeight="21120" xr2:uid="{095844C4-0F0B-4CEB-9E3D-BBD9111505E4}"/>
   </bookViews>
   <sheets>
     <sheet name="BaysTheorm" sheetId="1" r:id="rId1"/>
@@ -304,9 +304,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -464,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -520,12 +517,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,7 +1010,7 @@
   <dimension ref="A1:X55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,7 +1152,7 @@
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
     </row>
-    <row r="5" spans="8:24" ht="26.25" thickBot="1">
+    <row r="5" spans="8:24" ht="15.75" thickBot="1">
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1282,7 +1273,7 @@
         <v>68</v>
       </c>
       <c r="O8" s="19"/>
-      <c r="P8" s="20">
+      <c r="P8" s="9">
         <f>P3*P4*P5*P6</f>
         <v>1.4589519537979342E-2</v>
       </c>
@@ -1307,7 +1298,7 @@
         <v>69</v>
       </c>
       <c r="O9" s="19"/>
-      <c r="P9" s="20">
+      <c r="P9" s="9">
         <f>P3*P4*P5*P7</f>
         <v>6.7137612033179271E-3</v>
       </c>
@@ -1473,7 +1464,7 @@
         <f>D31/D32</f>
         <v>0.5</v>
       </c>
-      <c r="G35" s="21"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="4" t="s">
@@ -1483,7 +1474,7 @@
         <f>B32/D32</f>
         <v>0.45</v>
       </c>
-      <c r="G36" s="21"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
